--- a/dict_master.xlsx
+++ b/dict_master.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sghedu-my.sharepoint.com/personal/rr109174_student_sgh_waw_pl/Documents/Nowy_projekt_BNK/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sghedu-my.sharepoint.com/personal/rr109174_student_sgh_waw_pl/Documents/project_matching_GCI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_76BC4B87E62BF88954445AEFCB3DE9FCAA4B0A7D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B5953E1-184D-4BB0-9FE1-CC3C2262ED33}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_76BC4B87E62BF88954445AEFCB3DE9FCAA4B0A7D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47A14A0A-236A-41B4-9268-EE59E2081921}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2994,14 +2994,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:H84"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="6" max="6" width="54.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">

--- a/dict_master.xlsx
+++ b/dict_master.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sghedu-my.sharepoint.com/personal/rr109174_student_sgh_waw_pl/Documents/project_matching_GCI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_76BC4B87E62BF88954445AEFCB3DE9FCAA4B0A7D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47A14A0A-236A-41B4-9268-EE59E2081921}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_76BC4B87E62BF88954445AEFCB3DE9FCAA4B0A7D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D12A144-81A3-4E96-B8C3-F4B4B61C7F2F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2175" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="countries" sheetId="1" r:id="rId1"/>
     <sheet name="GCI" sheetId="2" r:id="rId2"/>
+    <sheet name="iteration_29.12.2023" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">countries!$A$1:$B$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">GCI!$A$1:$G$111</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -1740,6 +1742,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152593</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19218</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66FD0B9C-4BCB-E9AA-CD5D-E2F2129DF2DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="0"/>
+          <a:ext cx="3753043" cy="3276768"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2994,8 +3045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64:F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3030,70 +3081,70 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s">
         <v>242</v>
       </c>
       <c r="C2">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="F2" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="G2" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
         <v>242</v>
       </c>
       <c r="C3">
-        <v>0.03</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F3" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="G3" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
         <v>242</v>
       </c>
       <c r="C4">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="F4" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="G4" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B5" t="s">
         <v>242</v>
       </c>
       <c r="C5">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -3149,138 +3200,138 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="B9" t="s">
         <v>242</v>
       </c>
       <c r="C9">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="F9" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="G9" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B10" t="s">
         <v>242</v>
       </c>
       <c r="C10">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="F10" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="G10" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B11" t="s">
         <v>242</v>
       </c>
       <c r="C11">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="F11" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="G11" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B12" t="s">
         <v>242</v>
       </c>
       <c r="C12">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="F12" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="G12" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B13" t="s">
         <v>242</v>
       </c>
       <c r="C13">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="F13" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="G13" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="B14" t="s">
         <v>242</v>
       </c>
       <c r="C14">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="F14" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="G14" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="B15" t="s">
         <v>242</v>
       </c>
       <c r="C15">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="F15" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="G15" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B16" t="s">
         <v>242</v>
       </c>
       <c r="C16">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="F16" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="G16" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -3353,19 +3404,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="B21" t="s">
         <v>301</v>
       </c>
       <c r="C21">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="F21" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="G21" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -3404,104 +3455,104 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B24" t="s">
         <v>301</v>
       </c>
       <c r="C24">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="F24" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G24" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B25" t="s">
         <v>314</v>
       </c>
       <c r="C25">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F25" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="G25" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="B26" t="s">
         <v>314</v>
       </c>
       <c r="C26">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F26" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G26" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B27" t="s">
         <v>314</v>
       </c>
       <c r="C27">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F27" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G27" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B28" t="s">
         <v>314</v>
       </c>
       <c r="C28">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F28" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G28" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B29" t="s">
         <v>314</v>
       </c>
       <c r="C29">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F29" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G29" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -3523,70 +3574,70 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="B31" t="s">
         <v>333</v>
       </c>
       <c r="C31">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="F31" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="G31" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="B32" t="s">
         <v>333</v>
       </c>
       <c r="C32">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="F32" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="G32" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="B33" t="s">
         <v>333</v>
       </c>
       <c r="C33">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="F33" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="G33" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B34" t="s">
         <v>333</v>
       </c>
       <c r="C34">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="F34" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G34" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -3608,70 +3659,70 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B36" t="s">
         <v>333</v>
       </c>
       <c r="C36">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="F36" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="G36" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="B37" t="s">
         <v>333</v>
       </c>
       <c r="C37">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="F37" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="G37" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s">
         <v>333</v>
       </c>
       <c r="C38">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="F38" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="G38" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="B39" t="s">
         <v>333</v>
       </c>
       <c r="C39">
-        <v>0.14000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="F39" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="G39" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -3693,121 +3744,121 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B41" t="s">
         <v>333</v>
       </c>
       <c r="C41">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F41" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G41" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="B42" t="s">
         <v>367</v>
       </c>
       <c r="C42">
-        <v>0.01</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F42" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="G42" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B43" t="s">
         <v>367</v>
       </c>
       <c r="C43">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F43" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G43" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B44" t="s">
         <v>367</v>
       </c>
       <c r="C44">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F44" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G44" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B45" t="s">
         <v>367</v>
       </c>
       <c r="C45">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="F45" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G45" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B46" t="s">
         <v>367</v>
       </c>
       <c r="C46">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F46" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G46" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B47" t="s">
         <v>383</v>
       </c>
       <c r="C47">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F47" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="G47" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -3846,19 +3897,19 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B50" t="s">
         <v>383</v>
       </c>
       <c r="C50">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F50" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="G50" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -3948,53 +3999,53 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B56" t="s">
         <v>409</v>
       </c>
       <c r="C56">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F56" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="G56" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B57" t="s">
         <v>409</v>
       </c>
       <c r="C57">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F57" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G57" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B58" t="s">
         <v>409</v>
       </c>
       <c r="C58">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F58" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G58" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -4084,138 +4135,138 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B64" t="s">
         <v>422</v>
       </c>
       <c r="C64">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F64" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="G64" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B65" t="s">
         <v>422</v>
       </c>
       <c r="C65">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F65" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="G65" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B66" t="s">
         <v>422</v>
       </c>
       <c r="C66">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F66" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G66" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B67" t="s">
         <v>447</v>
       </c>
       <c r="C67">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F67" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="G67" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B68" t="s">
         <v>447</v>
       </c>
       <c r="C68">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F68" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="G68" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B69" t="s">
         <v>447</v>
       </c>
       <c r="C69">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F69" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="G69" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B70" t="s">
         <v>447</v>
       </c>
       <c r="C70">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F70" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G70" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="B71" t="s">
         <v>447</v>
       </c>
       <c r="C71">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F71" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="G71" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
@@ -4983,6 +5034,33 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G111" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G111">
+      <sortCondition ref="B1:B111"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G112">
+    <sortCondition ref="B2:B112"/>
+    <sortCondition ref="C2:C112"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FF928B-EA27-4BF3-91DD-5F3843B9A967}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A109">
+    <sortCondition ref="A1:A109"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/dict_master.xlsx
+++ b/dict_master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sghedu-my.sharepoint.com/personal/rr109174_student_sgh_waw_pl/Documents/project_matching_GCI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_35A44A829A5BB2E6848441EFCB3DE9FCAA4A56BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B99D32F-9807-4740-9E7C-CF843AC258F1}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_35A44A829A5BB2E6848441EFCB3DE9FCAA4A56BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AB18548-2CFD-4EE4-B6D4-8B84DB0B0089}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2175" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">countries!$A$1:$C$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GCI!$A$1:$G$138</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -3989,16 +3990,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="54.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -4024,7 +4027,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>215</v>
       </c>
@@ -4041,7 +4044,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>219</v>
       </c>
@@ -4058,7 +4061,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>222</v>
       </c>
@@ -4075,7 +4078,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>225</v>
       </c>
@@ -4092,7 +4095,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>228</v>
       </c>
@@ -4109,7 +4112,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>231</v>
       </c>
@@ -4126,7 +4129,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>234</v>
       </c>
@@ -4143,7 +4146,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>237</v>
       </c>
@@ -4160,7 +4163,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>240</v>
       </c>
@@ -4177,7 +4180,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>243</v>
       </c>
@@ -4194,7 +4197,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>246</v>
       </c>
@@ -4211,7 +4214,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>249</v>
       </c>
@@ -4228,7 +4231,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>252</v>
       </c>
@@ -4245,7 +4248,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>255</v>
       </c>
@@ -4262,7 +4265,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>258</v>
       </c>
@@ -4279,7 +4282,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>261</v>
       </c>
@@ -4296,7 +4299,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>264</v>
       </c>
@@ -4313,7 +4316,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>267</v>
       </c>
@@ -4330,7 +4333,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>271</v>
       </c>
@@ -4347,7 +4350,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>274</v>
       </c>
@@ -4364,7 +4367,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>277</v>
       </c>
@@ -4381,7 +4384,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>280</v>
       </c>
@@ -4398,7 +4401,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>283</v>
       </c>
@@ -4415,7 +4418,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>286</v>
       </c>
@@ -4432,7 +4435,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>289</v>
       </c>
@@ -4449,7 +4452,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>292</v>
       </c>
@@ -4466,7 +4469,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>296</v>
       </c>
@@ -4483,7 +4486,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>299</v>
       </c>
@@ -4500,7 +4503,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>302</v>
       </c>
@@ -4517,7 +4520,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>305</v>
       </c>
@@ -4534,7 +4537,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>309</v>
       </c>
@@ -4551,7 +4554,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>312</v>
       </c>
@@ -4568,7 +4571,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>315</v>
       </c>
@@ -4585,7 +4588,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>318</v>
       </c>
@@ -4602,7 +4605,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>321</v>
       </c>
@@ -4619,7 +4622,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>324</v>
       </c>
@@ -4636,7 +4639,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>327</v>
       </c>
@@ -4653,7 +4656,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>330</v>
       </c>
@@ -4670,7 +4673,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>334</v>
       </c>
@@ -4687,7 +4690,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>337</v>
       </c>
@@ -4704,7 +4707,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>340</v>
       </c>
@@ -4721,7 +4724,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>343</v>
       </c>
@@ -4738,7 +4741,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>346</v>
       </c>
@@ -4755,7 +4758,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>349</v>
       </c>
@@ -4772,7 +4775,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>352</v>
       </c>
@@ -4789,7 +4792,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>355</v>
       </c>
@@ -4806,7 +4809,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>359</v>
       </c>
@@ -4823,7 +4826,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>362</v>
       </c>
@@ -4840,7 +4843,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>365</v>
       </c>
@@ -4857,7 +4860,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>368</v>
       </c>
@@ -4874,7 +4877,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>371</v>
       </c>
@@ -4891,7 +4894,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>374</v>
       </c>
@@ -4908,7 +4911,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>377</v>
       </c>
@@ -4925,7 +4928,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>380</v>
       </c>
@@ -4942,7 +4945,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>383</v>
       </c>
@@ -4959,7 +4962,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>386</v>
       </c>
@@ -4976,7 +4979,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>389</v>
       </c>
@@ -4993,7 +4996,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>392</v>
       </c>
@@ -5010,7 +5013,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>395</v>
       </c>
@@ -5027,7 +5030,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>398</v>
       </c>
@@ -5044,7 +5047,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>401</v>
       </c>
@@ -5061,7 +5064,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>405</v>
       </c>
@@ -5078,7 +5081,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>408</v>
       </c>
@@ -5095,7 +5098,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>411</v>
       </c>
@@ -5112,7 +5115,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>414</v>
       </c>
@@ -5129,7 +5132,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>417</v>
       </c>
@@ -5146,7 +5149,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>420</v>
       </c>
@@ -5163,7 +5166,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>423</v>
       </c>
@@ -5180,7 +5183,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>427</v>
       </c>
@@ -5197,7 +5200,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>430</v>
       </c>
@@ -5214,7 +5217,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>433</v>
       </c>
@@ -5231,7 +5234,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>436</v>
       </c>
@@ -5248,7 +5251,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>439</v>
       </c>
@@ -5265,7 +5268,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>442</v>
       </c>
@@ -5282,7 +5285,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>446</v>
       </c>
@@ -5299,7 +5302,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>449</v>
       </c>
@@ -5316,7 +5319,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>452</v>
       </c>
@@ -5333,7 +5336,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>455</v>
       </c>
@@ -5350,7 +5353,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>458</v>
       </c>
@@ -5367,7 +5370,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>462</v>
       </c>
@@ -5384,7 +5387,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>465</v>
       </c>
@@ -5401,7 +5404,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>468</v>
       </c>
@@ -5418,7 +5421,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>471</v>
       </c>
@@ -5435,7 +5438,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>475</v>
       </c>
@@ -5452,7 +5455,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>478</v>
       </c>
@@ -5469,7 +5472,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>481</v>
       </c>
@@ -5486,7 +5489,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>484</v>
       </c>
@@ -5503,7 +5506,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>487</v>
       </c>
@@ -5520,7 +5523,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>490</v>
       </c>
@@ -5537,7 +5540,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>493</v>
       </c>
@@ -5554,7 +5557,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>496</v>
       </c>
@@ -5571,7 +5574,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>499</v>
       </c>
@@ -5588,7 +5591,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>503</v>
       </c>
@@ -5605,7 +5608,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>506</v>
       </c>
@@ -5622,7 +5625,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>509</v>
       </c>
@@ -5639,7 +5642,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>512</v>
       </c>
@@ -5656,7 +5659,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>515</v>
       </c>
@@ -5675,38 +5678,35 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>518</v>
+        <v>604</v>
       </c>
       <c r="B99" t="s">
-        <v>519</v>
+        <v>604</v>
       </c>
       <c r="F99" t="s">
-        <v>520</v>
+        <v>605</v>
       </c>
       <c r="G99" t="s">
-        <v>520</v>
+        <v>605</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B100" t="s">
         <v>519</v>
       </c>
-      <c r="C100">
-        <v>0.01</v>
-      </c>
       <c r="F100" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G100" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B101" t="s">
         <v>519</v>
@@ -5714,19 +5714,16 @@
       <c r="C101">
         <v>0.01</v>
       </c>
-      <c r="D101" t="s">
-        <v>524</v>
-      </c>
       <c r="F101" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G101" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B102" t="s">
         <v>519</v>
@@ -5737,19 +5734,16 @@
       <c r="D102" t="s">
         <v>524</v>
       </c>
-      <c r="E102" t="s">
-        <v>524</v>
-      </c>
       <c r="F102" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G102" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B103" t="s">
         <v>519</v>
@@ -5761,18 +5755,18 @@
         <v>524</v>
       </c>
       <c r="E103" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F103" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G103" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B104" t="s">
         <v>519</v>
@@ -5784,18 +5778,18 @@
         <v>524</v>
       </c>
       <c r="E104" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F104" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G104" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B105" t="s">
         <v>519</v>
@@ -5807,18 +5801,18 @@
         <v>524</v>
       </c>
       <c r="E105" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F105" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G105" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B106" t="s">
         <v>519</v>
@@ -5830,18 +5824,18 @@
         <v>524</v>
       </c>
       <c r="E106" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F106" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G106" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B107" t="s">
         <v>519</v>
@@ -5850,18 +5844,21 @@
         <v>0.01</v>
       </c>
       <c r="D107" t="s">
-        <v>529</v>
+        <v>524</v>
+      </c>
+      <c r="E107" t="s">
+        <v>538</v>
       </c>
       <c r="F107" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G107" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B108" t="s">
         <v>519</v>
@@ -5872,19 +5869,16 @@
       <c r="D108" t="s">
         <v>529</v>
       </c>
-      <c r="E108" t="s">
-        <v>524</v>
-      </c>
       <c r="F108" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G108" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B109" t="s">
         <v>519</v>
@@ -5896,69 +5890,75 @@
         <v>529</v>
       </c>
       <c r="E109" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F109" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G109" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B110" t="s">
         <v>519</v>
       </c>
       <c r="C110">
-        <v>0.02</v>
+        <v>0.01</v>
+      </c>
+      <c r="D110" t="s">
+        <v>529</v>
+      </c>
+      <c r="E110" t="s">
+        <v>529</v>
       </c>
       <c r="F110" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G110" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B111" t="s">
         <v>519</v>
       </c>
       <c r="C111">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F111" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G111" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B112" t="s">
         <v>519</v>
       </c>
       <c r="C112">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F112" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G112" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B113" t="s">
         <v>519</v>
@@ -5966,19 +5966,16 @@
       <c r="C113">
         <v>0.04</v>
       </c>
-      <c r="D113" t="s">
-        <v>524</v>
-      </c>
       <c r="F113" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G113" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B114" t="s">
         <v>519</v>
@@ -5987,49 +5984,52 @@
         <v>0.04</v>
       </c>
       <c r="D114" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F114" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G114" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B115" t="s">
-        <v>557</v>
+        <v>519</v>
+      </c>
+      <c r="C115">
+        <v>0.04</v>
+      </c>
+      <c r="D115" t="s">
+        <v>529</v>
       </c>
       <c r="F115" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G115" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B116" t="s">
         <v>557</v>
       </c>
-      <c r="C116">
-        <v>0.05</v>
-      </c>
       <c r="F116" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G116" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B117" t="s">
         <v>557</v>
@@ -6037,19 +6037,16 @@
       <c r="C117">
         <v>0.05</v>
       </c>
-      <c r="D117" t="s">
-        <v>524</v>
-      </c>
       <c r="F117" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G117" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B118" t="s">
         <v>557</v>
@@ -6058,18 +6055,18 @@
         <v>0.05</v>
       </c>
       <c r="D118" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F118" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G118" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B119" t="s">
         <v>557</v>
@@ -6078,35 +6075,38 @@
         <v>0.05</v>
       </c>
       <c r="D119" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F119" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G119" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B120" t="s">
         <v>557</v>
       </c>
       <c r="C120">
-        <v>0.06</v>
+        <v>0.05</v>
+      </c>
+      <c r="D120" t="s">
+        <v>532</v>
       </c>
       <c r="F120" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G120" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B121" t="s">
         <v>557</v>
@@ -6114,19 +6114,16 @@
       <c r="C121">
         <v>0.06</v>
       </c>
-      <c r="D121" t="s">
-        <v>524</v>
-      </c>
       <c r="F121" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G121" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B122" t="s">
         <v>557</v>
@@ -6137,19 +6134,16 @@
       <c r="D122" t="s">
         <v>524</v>
       </c>
-      <c r="E122" t="s">
-        <v>524</v>
-      </c>
       <c r="F122" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G122" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B123" t="s">
         <v>557</v>
@@ -6161,18 +6155,18 @@
         <v>524</v>
       </c>
       <c r="E123" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F123" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G123" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B124" t="s">
         <v>557</v>
@@ -6181,35 +6175,41 @@
         <v>0.06</v>
       </c>
       <c r="D124" t="s">
+        <v>524</v>
+      </c>
+      <c r="E124" t="s">
         <v>529</v>
       </c>
       <c r="F124" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G124" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B125" t="s">
         <v>557</v>
       </c>
       <c r="C125">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
+      </c>
+      <c r="D125" t="s">
+        <v>529</v>
       </c>
       <c r="F125" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G125" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B126" t="s">
         <v>557</v>
@@ -6217,19 +6217,16 @@
       <c r="C126">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D126" t="s">
-        <v>524</v>
-      </c>
       <c r="F126" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G126" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B127" t="s">
         <v>557</v>
@@ -6238,35 +6235,38 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D127" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F127" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G127" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B128" t="s">
         <v>557</v>
       </c>
       <c r="C128">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D128" t="s">
+        <v>529</v>
       </c>
       <c r="F128" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G128" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B129" t="s">
         <v>557</v>
@@ -6274,19 +6274,16 @@
       <c r="C129">
         <v>0.08</v>
       </c>
-      <c r="D129" t="s">
-        <v>524</v>
-      </c>
       <c r="F129" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G129" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B130" t="s">
         <v>557</v>
@@ -6295,52 +6292,55 @@
         <v>0.08</v>
       </c>
       <c r="D130" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F130" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G130" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B131" t="s">
         <v>557</v>
       </c>
       <c r="C131">
-        <v>0.09</v>
+        <v>0.08</v>
+      </c>
+      <c r="D131" t="s">
+        <v>529</v>
       </c>
       <c r="F131" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G131" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B132" t="s">
         <v>557</v>
       </c>
       <c r="C132">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F132" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G132" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B133" t="s">
         <v>557</v>
@@ -6348,19 +6348,16 @@
       <c r="C133">
         <v>0.1</v>
       </c>
-      <c r="D133" t="s">
-        <v>524</v>
-      </c>
       <c r="F133" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G133" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B134" t="s">
         <v>557</v>
@@ -6369,78 +6366,133 @@
         <v>0.1</v>
       </c>
       <c r="D134" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F134" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G134" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B135" t="s">
-        <v>598</v>
+        <v>557</v>
+      </c>
+      <c r="C135">
+        <v>0.1</v>
+      </c>
+      <c r="D135" t="s">
+        <v>529</v>
       </c>
       <c r="F135" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G135" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B136" t="s">
         <v>598</v>
       </c>
-      <c r="C136">
-        <v>0.11</v>
-      </c>
       <c r="F136" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G136" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B137" t="s">
         <v>598</v>
       </c>
       <c r="C137">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F137" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G137" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B138" t="s">
-        <v>604</v>
+        <v>598</v>
+      </c>
+      <c r="C138">
+        <v>0.12</v>
       </c>
       <c r="F138" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G138" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G138" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="GCI"/>
+        <filter val="GCI.A"/>
+        <filter val="GCI.A.01"/>
+        <filter val="GCI.A.01.01"/>
+        <filter val="GCI.A.01.01.01"/>
+        <filter val="GCI.A.01.01.02"/>
+        <filter val="GCI.A.01.01.03"/>
+        <filter val="GCI.A.01.01.04"/>
+        <filter val="GCI.A.01.01.05"/>
+        <filter val="GCI.A.01.02"/>
+        <filter val="GCI.A.01.02.01"/>
+        <filter val="GCI.A.01.02.02"/>
+        <filter val="GCI.A.02"/>
+        <filter val="GCI.A.03"/>
+        <filter val="GCI.A.04"/>
+        <filter val="GCI.A.04.01"/>
+        <filter val="GCI.A.04.02"/>
+        <filter val="GCI.B"/>
+        <filter val="GCI.B.05"/>
+        <filter val="GCI.B.05.01"/>
+        <filter val="GCI.B.05.02"/>
+        <filter val="GCI.B.05.03"/>
+        <filter val="GCI.B.06"/>
+        <filter val="GCI.B.06.01"/>
+        <filter val="GCI.B.06.01.01"/>
+        <filter val="GCI.B.06.01.02"/>
+        <filter val="GCI.B.06.02"/>
+        <filter val="GCI.B.07"/>
+        <filter val="GCI.B.07.01"/>
+        <filter val="GCI.B.07.02"/>
+        <filter val="GCI.B.08"/>
+        <filter val="GCI.B.08.01"/>
+        <filter val="GCI.B.08.02"/>
+        <filter val="GCI.B.09"/>
+        <filter val="GCI.B.10"/>
+        <filter val="GCI.B.10.01"/>
+        <filter val="GCI.B.10.02"/>
+        <filter val="GCI.C"/>
+        <filter val="GCI.C.11"/>
+        <filter val="GCI.C.12"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A99:G138">
+      <sortCondition ref="A1:A138"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>